--- a/pre-exp.xlsx
+++ b/pre-exp.xlsx
@@ -148,14 +148,6 @@
   </si>
   <si>
     <t>se_FTMagMSE_ulawM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_FTMagMSE_ulawM_FTin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_FTMagRL_ulawM_FTin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -236,6 +228,14 @@
   </si>
   <si>
     <t>0.177 ± 0.026 -&gt; 12.857 ± 16.221</t>
+  </si>
+  <si>
+    <t>se_FTMagMSE_ulawM_FTin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se_FTMagRL_ulawM_FTin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -788,7 +788,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>17</v>
@@ -825,13 +825,13 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
         <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -849,13 +849,13 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
         <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>15</v>
@@ -919,18 +919,18 @@
         <v>31</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/pre-exp.xlsx
+++ b/pre-exp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="900" yWindow="-105" windowWidth="22635" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>running</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,14 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>se_MagMSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_FTMagMSE_LogVT001_complexD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FTmag_mse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,26 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>se_FTMagMSE_LogVT001_complexNotFrameD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_FTMagMSE_LogVT001 (D is MLP only)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogValueT (raw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogValueT (raw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogValueT (raw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.068 ± 0.256 -&gt; 2.665 ± 0.180</t>
   </si>
   <si>
@@ -140,14 +112,6 @@
   </si>
   <si>
     <t>LogValueT (u-law-m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_FTMagMSE_ulaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_FTMagMSE_ulawM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -230,11 +194,159 @@
     <t>0.177 ± 0.026 -&gt; 12.857 ± 16.221</t>
   </si>
   <si>
-    <t>se_FTMagMSE_ulawM_FTin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>se_FTMagRL_ulawM_FTin</t>
+    <t>2.068 ± 0.256 -&gt; 2.859 ± 0.153</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.749 ± 16.338</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.765 ± 0.013</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.845 ± 0.163</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.763 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.905 ± 17.046</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.842 ± 0.170</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.757 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.347 ± 16.942</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.364 ± 0.219</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.696 ± 0.015</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 6.763 ± 12.179</t>
+  </si>
+  <si>
+    <t>FTMagMSE_100Gulaw</t>
+  </si>
+  <si>
+    <t>FTMagMSE_ulaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_ulawM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_ulawM_FTin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagRL_ulawM_FTin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_LogVT001 (D is MLP only)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_LogVT001_complexD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_LogVT001_complexNotFrameD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_100Gulaw_FTin</t>
+  </si>
+  <si>
+    <t>FTMagRL0_020_100Gulaw_FTin</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.859 ± 0.151</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.764 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.689 ± 16.754</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.885 ± 0.171</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.766 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.550 ± 16.911</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.979 ± 0.160</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.783 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.632 ± 14.978</t>
+  </si>
+  <si>
+    <t>FTmag_RL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_1000Gulaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_1000Lulaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogValueT (rawAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogValueT (rawAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_80MelFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTmag_mse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_129MelFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_80fixMelFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_ulaw_RMS_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagMSE_RMS_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogValueT (rawB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_LogVT002_complexNotFrameD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +358,7 @@
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,14 +393,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -401,10 +505,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -759,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>6</v>
@@ -786,156 +887,372 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="C9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="C11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="9"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="C9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="C11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="13" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>44</v>
+      <c r="E29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C41" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A7:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pre-exp.xlsx
+++ b/pre-exp.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E0F186E216C4289E455F5ED8BE16FA28CE2CB9FD" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-105" windowWidth="22635" windowHeight="15840"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22629" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="147">
   <si>
     <t>running</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +83,6 @@
   </si>
   <si>
     <t>FTmag_mse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feature Transformer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -346,14 +343,244 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FTMagMSE_LogVT002_complexNotFrameD</t>
+    <t>2.068 ± 0.256 -&gt; 2.896 ± 0.135</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.767 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.564 ± 16.558</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.907 ± 0.146</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.768 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.793 ± 17.136</t>
+  </si>
+  <si>
+    <t>se_FTMagMSE_rawB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.944 ± 0.151</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.757 ± 15.289</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.748 ± 0.152</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.752 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.994 ± 15.168</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.743 ± 0.155</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.754 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.079 ± 16.984</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.723 ± 0.163</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.751 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.041 ± 16.901</t>
+  </si>
+  <si>
+    <t>LogValueT (u-law-times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagMSE_1000Lulaw_FTin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mag_mse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_1000Lulaw_FTin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_RDenseFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomDenseT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MelDenseT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.878 ± 0.153</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.758 ± 18.043</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.671 ± 0.187</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.746 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.193 ± 17.161</t>
+  </si>
+  <si>
+    <t>FTMagMSE_1000LfixUlaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_1000Lulaw_con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.963 ± 0.144</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.779 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.119 ± 15.871</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.891 ± 0.167</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.449 ± 16.704</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.654 ± 0.199</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.742 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.602 ± 17.593</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.803 ± 0.164</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.076 ± 16.094</t>
+  </si>
+  <si>
+    <t>FTMagMSE_ulaw_80fixMelFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.837 ± 0.155</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.393 ± 16.015</t>
+  </si>
+  <si>
+    <t>FTmag_mse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reMagMse</t>
+  </si>
+  <si>
+    <t>Feature_Transformer/eps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reMagMse0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.958 ± 0.143</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.776 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.646 ± 17.387</t>
+  </si>
+  <si>
+    <t>3 class D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDense+ulaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.927 ± 0.159</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.775 ± 0.012</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 12.660 ± 16.360</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.936 ± 0.145</t>
+  </si>
+  <si>
+    <t>0.672 ± 0.015 -&gt; 0.771 ± 0.013</t>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.555 ± 17.469</t>
+  </si>
+  <si>
+    <t>2.068 ± 0.256 -&gt; 2.906 ± 0.149</t>
+  </si>
+  <si>
+    <t>LogValueT (u-law</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogValueT (u-law 9.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogValueT (u-law 9.0++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogValueT (u-law fin9.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.177 ± 0.026 -&gt; 13.566 ± 16.137</t>
+  </si>
+  <si>
+    <t>FTMagMSE_ulawBtimes100se （b205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_ulawBtimes200se （b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_ulawBtimes1000se (b1280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTMagMSE_ulawBtimes50se (b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
@@ -412,7 +639,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +661,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -502,6 +741,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -786,25 +1046,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="33.125" customWidth="1"/>
-    <col min="6" max="7" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="6" max="7" width="27.140625" customWidth="1"/>
     <col min="8" max="8" width="28.5" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -819,7 +1079,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -834,7 +1094,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -849,7 +1109,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -860,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>6</v>
@@ -884,100 +1144,109 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="25"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="25"/>
+      <c r="C9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="C11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="C11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="25"/>
       <c r="C12" s="9"/>
       <c r="D12" s="13"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="25"/>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -988,19 +1257,19 @@
         <v>13</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="4"/>
@@ -1008,7 +1277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="9"/>
@@ -1021,233 +1290,555 @@
       <c r="J16" s="4"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="11" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C22" s="9"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E25" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C20" s="9"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="G25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="E27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C29" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C29" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
         <v>57</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H31" t="s">
         <v>58</v>
       </c>
-      <c r="H29" t="s">
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C38" s="9"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C39" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C42" s="9"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C44" s="9"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C46" s="9"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" t="s">
         <v>60</v>
       </c>
-      <c r="G31" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C39" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="H47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C48" s="9"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C50" s="9"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C51" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C53" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C55" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C56" s="11"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C57" s="11"/>
+      <c r="E57" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" t="s">
+        <v>90</v>
+      </c>
+      <c r="H59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C61" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C41" s="9" t="s">
+      <c r="D61" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" t="s">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C43" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>73</v>
+      <c r="F63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63" t="s">
+        <v>93</v>
+      </c>
+      <c r="H63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C67" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E69" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
